--- a/data/Ranquil.xlsx
+++ b/data/Ranquil.xlsx
@@ -5623,7 +5623,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">

--- a/data/Ranquil.xlsx
+++ b/data/Ranquil.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extracción de áridos en río Itata</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS QUÍMICAS Y RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y TRANSPORTE ANINAT LIMITADA</t>
+          <t>Transportes Bretti Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/02/2019</t>
+          <t>24/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142491491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Antonio Luis Aninat Condon</t>
+          <t>MAQUINARIA Y TRANSPORTE ANINAT LIMITADA</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>31/01/2019</t>
+          <t>13/02/2019</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142447120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142491491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>"ACTUALIZACIÓN Y AMPLIACIÓN DE LA EXTRACCIÓN Y PROCESAMIENTO DE ÁRIDOS EN EL CAUCE DEL RÍO ÑUBLE, LnullISOLA LTDA."</t>
+          <t>Extracción de áridos en río Itata</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PRODUCTORA Y COMERCIALIZADORA L'ISOLA LTDA.</t>
+          <t>Antonio Luis Aninat Condon</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11/12/2018</t>
+          <t>31/01/2019</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141883155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142447120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>05/10/2018</t>
+          <t>11/12/2018</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141461017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141883155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13/09/2018</t>
+          <t>05/10/2018</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141224402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141461017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>"ACTUALIZACIÓN Y AMPLIACIÓN DE LA EXTRACCIÓN Y PROCESAMIENTO DE ÁRIDOS EN EL CAUCE DEL RÍO ÑUBLE, LnullISOLA LTDA."</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,20 +674,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>PRODUCTORA Y COMERCIALIZADORA L'ISOLA LTDA.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9903</v>
+        <v>3500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>13/09/2018</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141224402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta Forestal Leonera</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Forestal y Aserraderos Leonera Ltda.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>9903</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>27/04/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139001735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -779,21 +779,21 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>11500</v>
+        <v>19</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18/01/2018</t>
+          <t>27/04/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138185607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139001735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Planta Forestal Leonera</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Forestal y Aserraderos Leonera Ltda.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>18/01/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138185607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN Y PROCESAMIENTO DE ÁRIDOS PRODUCTORA Y COMERCIALIZADORA LnullISOLA LTDA.</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Productora y Comercializadora L'Isola Ltda</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3500</v>
+        <v>20000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>05/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132442633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nueva Caldera Forestal y Aserradero Leonera Ltda.</t>
+          <t>EXTRACCIÓN Y PROCESAMIENTO DE ÁRIDOS PRODUCTORA Y COMERCIALIZADORA LnullISOLA LTDA.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Forestal y Aserraderos Leonera Ltda.</t>
+          <t>Productora y Comercializadora L'Isola Ltda</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>750</v>
+        <v>3500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/08/2016</t>
+          <t>05/06/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131721429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132442633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Nueva Caldera Forestal y Aserradero Leonera Ltda.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Forestal y Aserraderos Leonera Ltda.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10000</v>
+        <v>750</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>23/08/2016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131721429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Almacenamiento de Clorato de Sodio y Fuel Oil N° 6 para Autonomía Operacional de Planta Nueva Aldea</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18/07/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Aumento de Capacidad de Almacenamiento de Clorato de Sodio y Fuel Oil N° 6 para Autonomía Operacional de Planta Nueva Aldea</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>18/07/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Almacenamiento de Clorato de Sodio y Fuel Oil N° 6 para Autonomía Operacional de Planta Nueva Aldea</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13/06/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129534958&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Aumento de Capacidad de Almacenamiento de Clorato de Sodio y Fuel Oil N° 6 para Autonomía Operacional de Planta Nueva Aldea</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>13/06/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129534958&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Almacenamiento de Resina Planta Terciado Nueva Aldea</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Paneles Arauco S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>306</v>
+        <v>100</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>30/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6441478&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>27/12/2011</t>
+          <t>30/12/2011</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6430742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6441478&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Aumento de Capacidad de Almacenamiento de Resina Planta Terciado Nueva Aldea</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Paneles Arauco S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1000</v>
+        <v>306</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>27/12/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6430742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1650</v>
+        <v>1000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,21 +2267,21 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4050</v>
+        <v>300</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Municipal, comuna de Ránquil (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ranquil</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4339755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Plan de Cierre Vertedero Municipal, comuna de Ránquil (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Ilustre Municipalidad de Ranquil</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4339755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>377</v>
+        <v>1350</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Optimización planta Nueva Aldea (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>150000</v>
+        <v>377</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>07/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4097412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Optimización planta Nueva Aldea (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>22</v>
+        <v>150000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>07/10/2009</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4097412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Optimización del Proceso Planta de Trozado, CFI Nueva Aldea optimización Planta de Trozado CFI Nueva Aldea (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Aserraderos Arauco S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1070</v>
+        <v>1650</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>13/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2966883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Optimización del Proceso Planta de Trozado, CFI Nueva Aldea optimización Planta de Trozado CFI Nueva Aldea (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Aserraderos Arauco S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>20</v>
+        <v>1070</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>13/06/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2966883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Recepción y Despacho de Licores en CFI Nueva Aldea Recepción y Despacho de Licores en CFI Nueva Aldea (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>18/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2855367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Recepción y Despacho de Licores en CFI Nueva Aldea Recepción y Despacho de Licores en CFI Nueva Aldea (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,12 +3410,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>18/04/2008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2855367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>30</v>
+        <v>429</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de insumos quimicos industriales desde Talcahuano hasta la Planta CFI Nueva Aldea . (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1423035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS (e-seia)</t>
+          <t>Transporte Ferroviario de insumos quimicos industriales desde Talcahuano hasta la Planta CFI Nueva Aldea . (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Caselli e Hija Ltda.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>07/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1365100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1423035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Caselli e Hija Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4000</v>
+        <v>40</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>07/04/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1365100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MICHAEL CASELLI RAMIREZ</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>41</v>
+        <v>4000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>MICHAEL CASELLI RAMIREZ</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4000</v>
+        <v>41</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Obras para la habilitación de un sistema ferroviario como alternativa de acceso al Complejo Forestal Industrial Nueva Aldea, . (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1318306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>Obras para la habilitación de un sistema ferroviario como alternativa de acceso al Complejo Forestal Industrial Nueva Aldea, . (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,20 +4610,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>200</v>
+        <v>7000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1318306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Producción Planta Terciado Nueva Aldea (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,20 +4658,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>31/01/2006</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Planta de Astillado Ranquil (e-seia)</t>
+          <t>Aumento de Capacidad de Producción Planta Terciado Nueva Aldea (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Forestal Arauco S.A..</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1500</v>
+        <v>50000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>23/01/2006</t>
+          <t>31/01/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1227598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Producción Planta Terciado Nueva Aldea (e-seia)</t>
+          <t>Planta de Astillado Ranquil (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Paneles Arauco S.A.</t>
+          <t>Forestal Arauco S.A..</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>50000</v>
+        <v>1500</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>20/01/2006</t>
+          <t>23/01/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1235458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1227598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>Aumento Capacidad de Producción Planta Terciado Nueva Aldea (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Paneles Arauco S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>20/01/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1235458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>extraccion mecanizada de aridos Extraepiedras (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Jose eduardo Caniuqueo Barrera</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>17/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1107261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>extraccion mecanizada de aridos Extraepiedras (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Jose eduardo Caniuqueo Barrera</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>17/11/2005</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1107261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,30 +4936,30 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sistema de Conducción y Descarga al mar de los efluentes del CFI Nueva Aldea</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>60000</v>
+        <v>160</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>08/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1133446&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,30 +4984,30 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Sistema de Conducción y Descarga al mar de los efluentes del CFI Nueva Aldea</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>08/11/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1133446&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,40 +5032,40 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Sistema de Conducción y Descarga al mar de los efluentes del CFI Nueva Aldea</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>03/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1083455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,40 +5080,40 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Sistema de Conducción y Descarga al mar de los efluentes del CFI Nueva Aldea</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>200</v>
+        <v>60000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>03/10/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1083455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Extracción de arena parcela Lote A-4, Ranquil ARIDOS_RANQUIL (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,20 +5138,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>María Del Pilar Pinedo Venegas</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>18/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=849091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Extracción de arena parcela Lote A-4, Ranquil ARIDOS_RANQUIL (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,20 +5186,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>María Del Pilar Pinedo Venegas</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>18/05/2005</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=849091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Planta de Astillado Ránquil (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Forestal Celco S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>29/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=628950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Planta de Astillado Ránquil (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Forestal Celco S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>29/03/2005</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=628950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Abastecimiento de Gas Natural Sector Industrial Nueva Aldea (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Innergy Transportes S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>20/12/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Abastecimiento de Gas Natural Sector Industrial Nueva Aldea (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,20 +5378,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Innergy Transportes S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>9000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>20/12/2004</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,30 +5416,30 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>OBRAS NUEVAS Y ACTUALIZACIONES DEL COMPLEJO FORESTAL INDUSTRIAL ITATA</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>30/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,12 +5464,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal Ranquil (e-seia)</t>
+          <t>OBRAS NUEVAS Y ACTUALIZACIONES DEL COMPLEJO FORESTAL INDUSTRIAL ITATA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Municipalidad</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>10/08/2004</t>
+          <t>30/08/2004</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Plan Regulador Comunal Ranquil (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,20 +5522,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Municipalidad</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>200</v>
+        <v>4500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>10/08/2004</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de aridos en el Río Itata, Sector Porvenir (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,20 +5570,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Edgar Walter Hadida Schmid</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1534</v>
+        <v>200</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>08/06/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 66kV Santa Elvira - Nueva Aldea (e-seia)</t>
+          <t>Extracción Mecanizada de aridos en el Río Itata, Sector Porvenir (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Edgar Walter Hadida Schmid</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>3146</v>
+        <v>1534</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>27/10/2003</t>
+          <t>08/06/2004</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=186749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Línea de Transmisión 66kV Santa Elvira - Nueva Aldea (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,20 +5666,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>200</v>
+        <v>3146</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>27/10/2003</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=186749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Planta de Terciados Itata (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,20 +5714,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>80000</v>
+        <v>200</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>02/09/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=25013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Planta de Terciados Itata (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,30 +5762,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>200</v>
+        <v>80000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>02/09/2002</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=25013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,43 +5800,91 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>Transporte de Residuos Industriales</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>ECOSUR S.A.</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>200</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>25/09/2001</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Ranquil</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
           <t>Complejo Forestal e Industrial Itata</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>Décimosexta</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
-      <c r="F114" t="n">
+      <c r="F115" t="n">
         <v>1</v>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>17/03/1999</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1774&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>Ranquil</t>
         </is>

--- a/data/Ranquil.xlsx
+++ b/data/Ranquil.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
